--- a/tx_fifo_timing_skew_tsmc2p_meas.xlsx
+++ b/tx_fifo_timing_skew_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="137">
   <si>
     <t>Process</t>
   </si>
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t>typical</t>
-  </si>
-  <si>
-    <t>error</t>
   </si>
   <si>
     <t>n/a</t>
@@ -434,7 +431,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,8 +454,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF "/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,6 +472,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0094D1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,10 +494,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1061,11 +1072,11 @@
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>83</v>
+      <c r="N2">
+        <v>0.23036</v>
+      </c>
+      <c r="O2">
+        <v>0.230947</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1073,11 +1084,11 @@
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>83</v>
+      <c r="R2">
+        <v>0.23036</v>
+      </c>
+      <c r="S2">
+        <v>0.230947</v>
       </c>
       <c r="T2">
         <v>50.5326</v>
@@ -1152,7 +1163,7 @@
         <v>50.5326</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS2">
         <v>53.3757</v>
@@ -1226,34 +1237,34 @@
       <c r="BP2">
         <v>53.3757</v>
       </c>
-      <c r="BQ2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BT2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BU2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BX2" s="2" t="s">
-        <v>83</v>
+      <c r="BQ2">
+        <v>72.43980000000001</v>
+      </c>
+      <c r="BR2">
+        <v>72.2094</v>
+      </c>
+      <c r="BS2">
+        <v>72.2423</v>
+      </c>
+      <c r="BT2">
+        <v>72.42490000000001</v>
+      </c>
+      <c r="BU2" s="3">
+        <v>-26.3836</v>
+      </c>
+      <c r="BV2" s="3">
+        <v>-26.6145</v>
+      </c>
+      <c r="BW2" s="3">
+        <v>-26.5815</v>
+      </c>
+      <c r="BX2" s="3">
+        <v>-26.3985</v>
       </c>
     </row>
     <row r="3" spans="1:76">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -1277,7 +1288,7 @@
         <v>79</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J3" t="s">
         <v>81</v>
@@ -1291,11 +1302,11 @@
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>83</v>
+      <c r="N3">
+        <v>0.211105</v>
+      </c>
+      <c r="O3">
+        <v>0.211381</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1303,11 +1314,11 @@
       <c r="Q3">
         <v>0</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>83</v>
+      <c r="R3">
+        <v>0.211105</v>
+      </c>
+      <c r="S3">
+        <v>0.211381</v>
       </c>
       <c r="T3">
         <v>50.3234</v>
@@ -1382,7 +1393,7 @@
         <v>50.3234</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS3">
         <v>53.1539</v>
@@ -1456,34 +1467,34 @@
       <c r="BP3">
         <v>53.1539</v>
       </c>
-      <c r="BQ3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BT3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BU3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BX3" s="2" t="s">
-        <v>83</v>
+      <c r="BQ3">
+        <v>72.67020000000001</v>
+      </c>
+      <c r="BR3">
+        <v>72.45910000000001</v>
+      </c>
+      <c r="BS3">
+        <v>72.4889</v>
+      </c>
+      <c r="BT3">
+        <v>72.6557</v>
+      </c>
+      <c r="BU3" s="3">
+        <v>-26.3553</v>
+      </c>
+      <c r="BV3" s="3">
+        <v>-26.5666</v>
+      </c>
+      <c r="BW3" s="3">
+        <v>-26.5368</v>
+      </c>
+      <c r="BX3" s="3">
+        <v>-26.37</v>
       </c>
     </row>
     <row r="4" spans="1:76">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -1507,7 +1518,7 @@
         <v>79</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J4" t="s">
         <v>81</v>
@@ -1521,11 +1532,11 @@
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>83</v>
+      <c r="N4">
+        <v>0.260746</v>
+      </c>
+      <c r="O4">
+        <v>0.262691</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1533,11 +1544,11 @@
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>83</v>
+      <c r="R4">
+        <v>0.260746</v>
+      </c>
+      <c r="S4">
+        <v>0.262691</v>
       </c>
       <c r="T4">
         <v>50.63610000000001</v>
@@ -1612,7 +1623,7 @@
         <v>50.63610000000001</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS4">
         <v>53.4909</v>
@@ -1686,61 +1697,61 @@
       <c r="BP4">
         <v>53.4909</v>
       </c>
-      <c r="BQ4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BT4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BU4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BX4" s="2" t="s">
-        <v>83</v>
+      <c r="BQ4">
+        <v>71.9109</v>
+      </c>
+      <c r="BR4">
+        <v>71.65020000000001</v>
+      </c>
+      <c r="BS4">
+        <v>71.688</v>
+      </c>
+      <c r="BT4">
+        <v>71.89570000000001</v>
+      </c>
+      <c r="BU4" s="3">
+        <v>-26.4455</v>
+      </c>
+      <c r="BV4" s="3">
+        <v>-26.7082</v>
+      </c>
+      <c r="BW4" s="3">
+        <v>-26.6697</v>
+      </c>
+      <c r="BX4" s="3">
+        <v>-26.4604</v>
       </c>
     </row>
     <row r="5" spans="1:76">
       <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
         <v>89</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>90</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>91</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>92</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>93</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>94</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>95</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" t="s">
         <v>96</v>
-      </c>
-      <c r="I5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" t="s">
-        <v>97</v>
       </c>
       <c r="K5" t="s">
         <v>82</v>
@@ -1751,11 +1762,11 @@
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>83</v>
+      <c r="N5">
+        <v>0.190576</v>
+      </c>
+      <c r="O5">
+        <v>0.191775</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1763,11 +1774,11 @@
       <c r="Q5">
         <v>0</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>83</v>
+      <c r="R5">
+        <v>0.190576</v>
+      </c>
+      <c r="S5">
+        <v>0.191775</v>
       </c>
       <c r="T5">
         <v>80.6392</v>
@@ -1842,7 +1853,7 @@
         <v>80.6392</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS5">
         <v>83.3283</v>
@@ -1916,61 +1927,61 @@
       <c r="BP5">
         <v>83.3283</v>
       </c>
-      <c r="BQ5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BT5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BU5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BX5" s="2" t="s">
-        <v>83</v>
+      <c r="BQ5">
+        <v>85.20229999999999</v>
+      </c>
+      <c r="BR5">
+        <v>85.0117</v>
+      </c>
+      <c r="BS5">
+        <v>85.0352</v>
+      </c>
+      <c r="BT5">
+        <v>85.18140000000001</v>
+      </c>
+      <c r="BU5" s="3">
+        <v>-13.3004</v>
+      </c>
+      <c r="BV5" s="3">
+        <v>-13.4922</v>
+      </c>
+      <c r="BW5" s="3">
+        <v>-13.4683</v>
+      </c>
+      <c r="BX5" s="3">
+        <v>-13.3209</v>
       </c>
     </row>
     <row r="6" spans="1:76">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
         <v>90</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>91</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>92</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>93</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>94</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>95</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
         <v>96</v>
-      </c>
-      <c r="I6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J6" t="s">
-        <v>97</v>
       </c>
       <c r="K6" t="s">
         <v>82</v>
@@ -1981,11 +1992,11 @@
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>83</v>
+      <c r="N6">
+        <v>0.241412</v>
+      </c>
+      <c r="O6">
+        <v>0.244528</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1993,11 +2004,11 @@
       <c r="Q6">
         <v>0</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>83</v>
+      <c r="R6">
+        <v>0.241412</v>
+      </c>
+      <c r="S6">
+        <v>0.244528</v>
       </c>
       <c r="T6">
         <v>75.23960000000001</v>
@@ -2072,7 +2083,7 @@
         <v>75.23960000000001</v>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS6">
         <v>78.2663</v>
@@ -2146,61 +2157,61 @@
       <c r="BP6">
         <v>78.2663</v>
       </c>
-      <c r="BQ6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BT6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BU6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BX6" s="2" t="s">
-        <v>83</v>
+      <c r="BQ6">
+        <v>82.074</v>
+      </c>
+      <c r="BR6">
+        <v>81.83260000000001</v>
+      </c>
+      <c r="BS6">
+        <v>81.8647</v>
+      </c>
+      <c r="BT6">
+        <v>82.05289999999999</v>
+      </c>
+      <c r="BU6" s="3">
+        <v>-15.5902</v>
+      </c>
+      <c r="BV6" s="3">
+        <v>-15.8347</v>
+      </c>
+      <c r="BW6" s="3">
+        <v>-15.8016</v>
+      </c>
+      <c r="BX6" s="3">
+        <v>-15.6102</v>
       </c>
     </row>
     <row r="7" spans="1:76">
       <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
         <v>99</v>
-      </c>
-      <c r="B7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" t="s">
-        <v>100</v>
       </c>
       <c r="K7" t="s">
         <v>82</v>
@@ -2211,11 +2222,11 @@
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>83</v>
+      <c r="N7">
+        <v>0.204517</v>
+      </c>
+      <c r="O7">
+        <v>0.205523</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -2223,11 +2234,11 @@
       <c r="Q7">
         <v>0</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>83</v>
+      <c r="R7">
+        <v>0.204517</v>
+      </c>
+      <c r="S7">
+        <v>0.205523</v>
       </c>
       <c r="T7">
         <v>56.691</v>
@@ -2302,7 +2313,7 @@
         <v>56.691</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS7">
         <v>59.4148</v>
@@ -2376,61 +2387,61 @@
       <c r="BP7">
         <v>59.4148</v>
       </c>
-      <c r="BQ7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BT7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BU7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BX7" s="2" t="s">
-        <v>83</v>
+      <c r="BQ7">
+        <v>75.6032</v>
+      </c>
+      <c r="BR7">
+        <v>75.39870000000001</v>
+      </c>
+      <c r="BS7">
+        <v>75.4264</v>
+      </c>
+      <c r="BT7">
+        <v>75.5866</v>
+      </c>
+      <c r="BU7" s="3">
+        <v>-23.0273</v>
+      </c>
+      <c r="BV7" s="3">
+        <v>-23.2328</v>
+      </c>
+      <c r="BW7" s="3">
+        <v>-23.2049</v>
+      </c>
+      <c r="BX7" s="3">
+        <v>-23.0439</v>
       </c>
     </row>
     <row r="8" spans="1:76">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
         <v>90</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>91</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>92</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>93</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>94</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>95</v>
       </c>
-      <c r="H8" t="s">
-        <v>96</v>
-      </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
         <v>82</v>
@@ -2441,11 +2452,11 @@
       <c r="M8">
         <v>0</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>83</v>
+      <c r="N8">
+        <v>0.253438</v>
+      </c>
+      <c r="O8">
+        <v>0.255827</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2453,11 +2464,11 @@
       <c r="Q8">
         <v>0</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>83</v>
+      <c r="R8">
+        <v>0.253438</v>
+      </c>
+      <c r="S8">
+        <v>0.255827</v>
       </c>
       <c r="T8">
         <v>56.8922</v>
@@ -2532,7 +2543,7 @@
         <v>56.8922</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS8">
         <v>59.7296</v>
@@ -2606,76 +2617,76 @@
       <c r="BP8">
         <v>59.7296</v>
       </c>
-      <c r="BQ8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BT8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BU8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BX8" s="2" t="s">
-        <v>83</v>
+      <c r="BQ8">
+        <v>74.77979999999999</v>
+      </c>
+      <c r="BR8">
+        <v>74.52640000000001</v>
+      </c>
+      <c r="BS8">
+        <v>74.562</v>
+      </c>
+      <c r="BT8">
+        <v>74.76230000000001</v>
+      </c>
+      <c r="BU8" s="3">
+        <v>-23.2231</v>
+      </c>
+      <c r="BV8" s="3">
+        <v>-23.4789</v>
+      </c>
+      <c r="BW8" s="3">
+        <v>-23.4426</v>
+      </c>
+      <c r="BX8" s="3">
+        <v>-23.2402</v>
       </c>
     </row>
     <row r="9" spans="1:76">
       <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
         <v>102</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>103</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>104</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>105</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>106</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>107</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>108</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
         <v>109</v>
       </c>
-      <c r="I9" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" t="s">
-        <v>97</v>
-      </c>
-      <c r="K9" t="s">
-        <v>110</v>
-      </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>83</v>
+      <c r="N9">
+        <v>0.204862</v>
+      </c>
+      <c r="O9">
+        <v>0.206449</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2683,11 +2694,11 @@
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>83</v>
+      <c r="R9">
+        <v>0.204862</v>
+      </c>
+      <c r="S9">
+        <v>0.206449</v>
       </c>
       <c r="T9">
         <v>45.2265</v>
@@ -2762,7 +2773,7 @@
         <v>45.2265</v>
       </c>
       <c r="AR9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS9">
         <v>48.1247</v>
@@ -2836,76 +2847,76 @@
       <c r="BP9">
         <v>48.1247</v>
       </c>
-      <c r="BQ9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BT9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BU9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BX9" s="2" t="s">
-        <v>83</v>
+      <c r="BQ9">
+        <v>70.2277</v>
+      </c>
+      <c r="BR9">
+        <v>70.0228</v>
+      </c>
+      <c r="BS9">
+        <v>70.0545</v>
+      </c>
+      <c r="BT9">
+        <v>70.21960000000001</v>
+      </c>
+      <c r="BU9" s="3">
+        <v>-29.2513</v>
+      </c>
+      <c r="BV9" s="3">
+        <v>-29.4577</v>
+      </c>
+      <c r="BW9" s="3">
+        <v>-29.4168</v>
+      </c>
+      <c r="BX9" s="3">
+        <v>-29.2531</v>
       </c>
     </row>
     <row r="10" spans="1:76">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
         <v>103</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>104</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>105</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>106</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>107</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>108</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" t="s">
         <v>109</v>
       </c>
-      <c r="I10" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" t="s">
-        <v>97</v>
-      </c>
-      <c r="K10" t="s">
-        <v>110</v>
-      </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>83</v>
+      <c r="N10">
+        <v>0.253381</v>
+      </c>
+      <c r="O10">
+        <v>0.254843</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2913,11 +2924,11 @@
       <c r="Q10">
         <v>0</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>83</v>
+      <c r="R10">
+        <v>0.253381</v>
+      </c>
+      <c r="S10">
+        <v>0.254843</v>
       </c>
       <c r="T10">
         <v>45.8436</v>
@@ -2992,7 +3003,7 @@
         <v>45.8436</v>
       </c>
       <c r="AR10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS10">
         <v>48.7477</v>
@@ -3066,76 +3077,76 @@
       <c r="BP10">
         <v>48.7477</v>
       </c>
-      <c r="BQ10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BT10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BU10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BX10" s="2" t="s">
-        <v>83</v>
+      <c r="BQ10">
+        <v>69.7107</v>
+      </c>
+      <c r="BR10">
+        <v>69.4573</v>
+      </c>
+      <c r="BS10">
+        <v>69.4967</v>
+      </c>
+      <c r="BT10">
+        <v>69.7025</v>
+      </c>
+      <c r="BU10" s="3">
+        <v>-28.848</v>
+      </c>
+      <c r="BV10" s="3">
+        <v>-29.1028</v>
+      </c>
+      <c r="BW10" s="3">
+        <v>-29.063</v>
+      </c>
+      <c r="BX10" s="3">
+        <v>-28.8558</v>
       </c>
     </row>
     <row r="11" spans="1:76">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
         <v>103</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>104</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>105</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>106</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>107</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>108</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" t="s">
         <v>109</v>
       </c>
-      <c r="I11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11" t="s">
-        <v>110</v>
-      </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>83</v>
+      <c r="N11">
+        <v>0.212407</v>
+      </c>
+      <c r="O11">
+        <v>0.208894</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -3143,11 +3154,11 @@
       <c r="Q11">
         <v>0</v>
       </c>
-      <c r="R11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>83</v>
+      <c r="R11">
+        <v>0.212407</v>
+      </c>
+      <c r="S11">
+        <v>0.208894</v>
       </c>
       <c r="T11">
         <v>37.2174</v>
@@ -3222,7 +3233,7 @@
         <v>37.2174</v>
       </c>
       <c r="AR11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS11">
         <v>39.9313</v>
@@ -3296,76 +3307,76 @@
       <c r="BP11">
         <v>39.9313</v>
       </c>
-      <c r="BQ11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BT11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BU11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BX11" s="2" t="s">
-        <v>83</v>
+      <c r="BQ11">
+        <v>66.733</v>
+      </c>
+      <c r="BR11">
+        <v>66.5206</v>
+      </c>
+      <c r="BS11">
+        <v>66.5548</v>
+      </c>
+      <c r="BT11">
+        <v>66.7277</v>
+      </c>
+      <c r="BU11" s="3">
+        <v>-32.6242</v>
+      </c>
+      <c r="BV11" s="3">
+        <v>-32.8304</v>
+      </c>
+      <c r="BW11" s="3">
+        <v>-32.79620000000001</v>
+      </c>
+      <c r="BX11" s="3">
+        <v>-32.6216</v>
       </c>
     </row>
     <row r="12" spans="1:76">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s">
         <v>103</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>104</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>105</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>106</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>107</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>108</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" t="s">
         <v>109</v>
       </c>
-      <c r="I12" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" t="s">
-        <v>100</v>
-      </c>
-      <c r="K12" t="s">
-        <v>110</v>
-      </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>83</v>
+      <c r="N12">
+        <v>0.25838</v>
+      </c>
+      <c r="O12">
+        <v>0.257324</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -3373,11 +3384,11 @@
       <c r="Q12">
         <v>0</v>
       </c>
-      <c r="R12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>83</v>
+      <c r="R12">
+        <v>0.25838</v>
+      </c>
+      <c r="S12">
+        <v>0.257324</v>
       </c>
       <c r="T12">
         <v>39.4512</v>
@@ -3452,7 +3463,7 @@
         <v>39.4512</v>
       </c>
       <c r="AR12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS12">
         <v>42.1752</v>
@@ -3526,76 +3537,76 @@
       <c r="BP12">
         <v>42.1752</v>
       </c>
-      <c r="BQ12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BT12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BU12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BX12" s="2" t="s">
-        <v>83</v>
+      <c r="BQ12">
+        <v>67.0668</v>
+      </c>
+      <c r="BR12">
+        <v>66.80839999999999</v>
+      </c>
+      <c r="BS12">
+        <v>66.85040000000001</v>
+      </c>
+      <c r="BT12">
+        <v>67.06180000000001</v>
+      </c>
+      <c r="BU12" s="3">
+        <v>-31.6381</v>
+      </c>
+      <c r="BV12" s="3">
+        <v>-31.8898</v>
+      </c>
+      <c r="BW12" s="3">
+        <v>-31.847</v>
+      </c>
+      <c r="BX12" s="3">
+        <v>-31.6325</v>
       </c>
     </row>
     <row r="13" spans="1:76">
       <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
         <v>114</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>115</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>116</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" t="s">
         <v>117</v>
       </c>
-      <c r="E13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K13" t="s">
-        <v>118</v>
-      </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>83</v>
+      <c r="N13">
+        <v>0.213263</v>
+      </c>
+      <c r="O13">
+        <v>0.229209</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3603,11 +3614,11 @@
       <c r="Q13">
         <v>0</v>
       </c>
-      <c r="R13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>83</v>
+      <c r="R13">
+        <v>0.213263</v>
+      </c>
+      <c r="S13">
+        <v>0.229209</v>
       </c>
       <c r="T13">
         <v>60.8649</v>
@@ -3682,7 +3693,7 @@
         <v>60.8649</v>
       </c>
       <c r="AR13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS13">
         <v>61.7835</v>
@@ -3756,76 +3767,76 @@
       <c r="BP13">
         <v>61.7835</v>
       </c>
-      <c r="BQ13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BT13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BU13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BX13" s="2" t="s">
-        <v>83</v>
+      <c r="BQ13">
+        <v>74.99600000000001</v>
+      </c>
+      <c r="BR13">
+        <v>74.78269999999999</v>
+      </c>
+      <c r="BS13">
+        <v>74.8096</v>
+      </c>
+      <c r="BT13">
+        <v>74.97410000000001</v>
+      </c>
+      <c r="BU13" s="3">
+        <v>-19.4252</v>
+      </c>
+      <c r="BV13" s="3">
+        <v>-19.6544</v>
+      </c>
+      <c r="BW13" s="3">
+        <v>-19.623</v>
+      </c>
+      <c r="BX13" s="3">
+        <v>-19.4428</v>
       </c>
     </row>
     <row r="14" spans="1:76">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
         <v>115</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>116</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" t="s">
         <v>117</v>
       </c>
-      <c r="E14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I14" t="s">
-        <v>88</v>
-      </c>
-      <c r="J14" t="s">
-        <v>97</v>
-      </c>
-      <c r="K14" t="s">
-        <v>118</v>
-      </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>83</v>
+      <c r="N14">
+        <v>0.263714</v>
+      </c>
+      <c r="O14">
+        <v>0.292665</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -3833,11 +3844,11 @@
       <c r="Q14">
         <v>0</v>
       </c>
-      <c r="R14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>83</v>
+      <c r="R14">
+        <v>0.263714</v>
+      </c>
+      <c r="S14">
+        <v>0.292665</v>
       </c>
       <c r="T14">
         <v>59.11390000000001</v>
@@ -3912,7 +3923,7 @@
         <v>59.11390000000001</v>
       </c>
       <c r="AR14" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS14">
         <v>60.42169999999999</v>
@@ -3986,76 +3997,76 @@
       <c r="BP14">
         <v>60.42169999999999</v>
       </c>
-      <c r="BQ14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BT14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BU14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BX14" s="2" t="s">
-        <v>83</v>
+      <c r="BQ14">
+        <v>73.1786</v>
+      </c>
+      <c r="BR14">
+        <v>72.9148</v>
+      </c>
+      <c r="BS14">
+        <v>72.9496</v>
+      </c>
+      <c r="BT14">
+        <v>73.15520000000001</v>
+      </c>
+      <c r="BU14" s="3">
+        <v>-20.3553</v>
+      </c>
+      <c r="BV14" s="3">
+        <v>-20.648</v>
+      </c>
+      <c r="BW14" s="3">
+        <v>-20.6052</v>
+      </c>
+      <c r="BX14" s="3">
+        <v>-20.3712</v>
       </c>
     </row>
     <row r="15" spans="1:76">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" t="s">
         <v>115</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>116</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" t="s">
         <v>117</v>
       </c>
-      <c r="E15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" t="s">
-        <v>109</v>
-      </c>
-      <c r="I15" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" t="s">
-        <v>100</v>
-      </c>
-      <c r="K15" t="s">
-        <v>118</v>
-      </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>83</v>
+      <c r="N15">
+        <v>0.223336</v>
+      </c>
+      <c r="O15">
+        <v>0.241393</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -4063,11 +4074,11 @@
       <c r="Q15">
         <v>0</v>
       </c>
-      <c r="R15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>83</v>
+      <c r="R15">
+        <v>0.223336</v>
+      </c>
+      <c r="S15">
+        <v>0.241393</v>
       </c>
       <c r="T15">
         <v>46.6035</v>
@@ -4142,7 +4153,7 @@
         <v>46.6035</v>
       </c>
       <c r="AR15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS15">
         <v>47.5542</v>
@@ -4216,76 +4227,76 @@
       <c r="BP15">
         <v>47.5542</v>
       </c>
-      <c r="BQ15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BT15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BU15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BX15" s="2" t="s">
-        <v>83</v>
+      <c r="BQ15">
+        <v>69.1023</v>
+      </c>
+      <c r="BR15">
+        <v>68.879</v>
+      </c>
+      <c r="BS15">
+        <v>68.9089</v>
+      </c>
+      <c r="BT15">
+        <v>69.08380000000001</v>
+      </c>
+      <c r="BU15" s="3">
+        <v>-26.4732</v>
+      </c>
+      <c r="BV15" s="3">
+        <v>-26.7146</v>
+      </c>
+      <c r="BW15" s="3">
+        <v>-26.6796</v>
+      </c>
+      <c r="BX15" s="3">
+        <v>-26.4872</v>
       </c>
     </row>
     <row r="16" spans="1:76">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" t="s">
         <v>115</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>116</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" t="s">
         <v>117</v>
       </c>
-      <c r="E16" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" t="s">
-        <v>109</v>
-      </c>
-      <c r="I16" t="s">
-        <v>88</v>
-      </c>
-      <c r="J16" t="s">
-        <v>100</v>
-      </c>
-      <c r="K16" t="s">
-        <v>118</v>
-      </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>83</v>
+      <c r="N16">
+        <v>0.273836</v>
+      </c>
+      <c r="O16">
+        <v>0.298881</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -4293,11 +4304,11 @@
       <c r="Q16">
         <v>0</v>
       </c>
-      <c r="R16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>83</v>
+      <c r="R16">
+        <v>0.273836</v>
+      </c>
+      <c r="S16">
+        <v>0.298881</v>
       </c>
       <c r="T16">
         <v>47.91670000000001</v>
@@ -4372,7 +4383,7 @@
         <v>47.91670000000001</v>
       </c>
       <c r="AR16" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS16">
         <v>49.04949999999999</v>
@@ -4446,64 +4457,64 @@
       <c r="BP16">
         <v>49.04949999999999</v>
       </c>
-      <c r="BQ16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BT16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BU16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BX16" s="2" t="s">
-        <v>83</v>
+      <c r="BQ16">
+        <v>68.78320000000001</v>
+      </c>
+      <c r="BR16">
+        <v>68.5094</v>
+      </c>
+      <c r="BS16">
+        <v>68.5471</v>
+      </c>
+      <c r="BT16">
+        <v>68.7627</v>
+      </c>
+      <c r="BU16" s="3">
+        <v>-25.9958</v>
+      </c>
+      <c r="BV16" s="3">
+        <v>-26.2947</v>
+      </c>
+      <c r="BW16" s="3">
+        <v>-26.25</v>
+      </c>
+      <c r="BX16" s="3">
+        <v>-26.0098</v>
       </c>
     </row>
     <row r="17" spans="1:76">
       <c r="A17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" t="s">
         <v>122</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>123</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>124</v>
       </c>
-      <c r="D17" t="s">
-        <v>125</v>
-      </c>
       <c r="E17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" t="s">
         <v>106</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>107</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>108</v>
       </c>
-      <c r="H17" t="s">
-        <v>109</v>
-      </c>
       <c r="I17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -4511,11 +4522,11 @@
       <c r="M17">
         <v>0</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>83</v>
+      <c r="N17">
+        <v>0.23033</v>
+      </c>
+      <c r="O17">
+        <v>0.214247</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -4523,11 +4534,11 @@
       <c r="Q17">
         <v>0</v>
       </c>
-      <c r="R17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>83</v>
+      <c r="R17">
+        <v>0.23033</v>
+      </c>
+      <c r="S17">
+        <v>0.214247</v>
       </c>
       <c r="T17">
         <v>59.127</v>
@@ -4602,7 +4613,7 @@
         <v>59.127</v>
       </c>
       <c r="AR17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS17">
         <v>64.02970000000001</v>
@@ -4676,64 +4687,64 @@
       <c r="BP17">
         <v>64.02970000000001</v>
       </c>
-      <c r="BQ17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BT17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BU17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BX17" s="2" t="s">
-        <v>83</v>
+      <c r="BQ17">
+        <v>78.2963</v>
+      </c>
+      <c r="BR17">
+        <v>78.066</v>
+      </c>
+      <c r="BS17">
+        <v>78.09780000000001</v>
+      </c>
+      <c r="BT17">
+        <v>78.2792</v>
+      </c>
+      <c r="BU17" s="3">
+        <v>-24.8497</v>
+      </c>
+      <c r="BV17" s="3">
+        <v>-25.0639</v>
+      </c>
+      <c r="BW17" s="3">
+        <v>-25.0366</v>
+      </c>
+      <c r="BX17" s="3">
+        <v>-24.8711</v>
       </c>
     </row>
     <row r="18" spans="1:76">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" t="s">
         <v>123</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>124</v>
       </c>
-      <c r="D18" t="s">
-        <v>125</v>
-      </c>
       <c r="E18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" t="s">
         <v>106</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>107</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>108</v>
       </c>
-      <c r="H18" t="s">
-        <v>109</v>
-      </c>
       <c r="I18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -4741,11 +4752,11 @@
       <c r="M18">
         <v>0</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>83</v>
+      <c r="N18">
+        <v>0.288506</v>
+      </c>
+      <c r="O18">
+        <v>0.266218</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -4753,11 +4764,11 @@
       <c r="Q18">
         <v>0</v>
       </c>
-      <c r="R18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>83</v>
+      <c r="R18">
+        <v>0.288506</v>
+      </c>
+      <c r="S18">
+        <v>0.266218</v>
       </c>
       <c r="T18">
         <v>56.9474</v>
@@ -4832,7 +4843,7 @@
         <v>56.9474</v>
       </c>
       <c r="AR18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS18">
         <v>61.6682</v>
@@ -4906,64 +4917,64 @@
       <c r="BP18">
         <v>61.6682</v>
       </c>
-      <c r="BQ18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BT18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BU18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BX18" s="2" t="s">
-        <v>83</v>
+      <c r="BQ18">
+        <v>76.6216</v>
+      </c>
+      <c r="BR18">
+        <v>76.3331</v>
+      </c>
+      <c r="BS18">
+        <v>76.37479999999999</v>
+      </c>
+      <c r="BT18">
+        <v>76.60480000000001</v>
+      </c>
+      <c r="BU18" s="3">
+        <v>-25.8772</v>
+      </c>
+      <c r="BV18" s="3">
+        <v>-26.1434</v>
+      </c>
+      <c r="BW18" s="3">
+        <v>-26.1078</v>
+      </c>
+      <c r="BX18" s="3">
+        <v>-25.8999</v>
       </c>
     </row>
     <row r="19" spans="1:76">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" t="s">
         <v>123</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>124</v>
       </c>
-      <c r="D19" t="s">
-        <v>125</v>
-      </c>
       <c r="E19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" t="s">
         <v>106</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>107</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>108</v>
       </c>
-      <c r="H19" t="s">
-        <v>109</v>
-      </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -4971,11 +4982,11 @@
       <c r="M19">
         <v>0</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>83</v>
+      <c r="N19">
+        <v>0.243101</v>
+      </c>
+      <c r="O19">
+        <v>0.220359</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -4983,11 +4994,11 @@
       <c r="Q19">
         <v>0</v>
       </c>
-      <c r="R19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>83</v>
+      <c r="R19">
+        <v>0.243101</v>
+      </c>
+      <c r="S19">
+        <v>0.220359</v>
       </c>
       <c r="T19">
         <v>44.8181</v>
@@ -5062,7 +5073,7 @@
         <v>44.8181</v>
       </c>
       <c r="AR19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS19">
         <v>49.4516</v>
@@ -5136,64 +5147,64 @@
       <c r="BP19">
         <v>49.4516</v>
       </c>
-      <c r="BQ19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BT19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BU19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BX19" s="2" t="s">
-        <v>83</v>
+      <c r="BQ19">
+        <v>72.0138</v>
+      </c>
+      <c r="BR19">
+        <v>71.77070000000001</v>
+      </c>
+      <c r="BS19">
+        <v>71.80670000000001</v>
+      </c>
+      <c r="BT19">
+        <v>72.0001</v>
+      </c>
+      <c r="BU19" s="3">
+        <v>-30.6561</v>
+      </c>
+      <c r="BV19" s="3">
+        <v>-30.8764</v>
+      </c>
+      <c r="BW19" s="3">
+        <v>-30.846</v>
+      </c>
+      <c r="BX19" s="3">
+        <v>-30.6714</v>
       </c>
     </row>
     <row r="20" spans="1:76">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" t="s">
         <v>123</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>124</v>
       </c>
-      <c r="D20" t="s">
-        <v>125</v>
-      </c>
       <c r="E20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" t="s">
         <v>106</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>107</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>108</v>
       </c>
-      <c r="H20" t="s">
-        <v>109</v>
-      </c>
       <c r="I20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -5201,11 +5212,11 @@
       <c r="M20">
         <v>0</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>83</v>
+      <c r="N20">
+        <v>0.296049</v>
+      </c>
+      <c r="O20">
+        <v>0.263896</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -5213,11 +5224,11 @@
       <c r="Q20">
         <v>0</v>
       </c>
-      <c r="R20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>83</v>
+      <c r="R20">
+        <v>0.296049</v>
+      </c>
+      <c r="S20">
+        <v>0.263896</v>
       </c>
       <c r="T20">
         <v>46.0172</v>
@@ -5292,7 +5303,7 @@
         <v>46.0172</v>
       </c>
       <c r="AR20" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS20">
         <v>50.5402</v>
@@ -5366,29 +5377,29 @@
       <c r="BP20">
         <v>50.5402</v>
       </c>
-      <c r="BQ20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BT20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BU20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BX20" s="2" t="s">
-        <v>83</v>
+      <c r="BQ20">
+        <v>71.8323</v>
+      </c>
+      <c r="BR20">
+        <v>71.5363</v>
+      </c>
+      <c r="BS20">
+        <v>71.5809</v>
+      </c>
+      <c r="BT20">
+        <v>71.8186</v>
+      </c>
+      <c r="BU20" s="3">
+        <v>-30.2758</v>
+      </c>
+      <c r="BV20" s="3">
+        <v>-30.5254</v>
+      </c>
+      <c r="BW20" s="3">
+        <v>-30.4827</v>
+      </c>
+      <c r="BX20" s="3">
+        <v>-30.2615</v>
       </c>
     </row>
     <row r="21" spans="1:76" s="1" customFormat="1">
@@ -5623,7 +5634,7 @@
     </row>
     <row r="22" spans="1:76" s="1" customFormat="1">
       <c r="K22" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L22" s="1">
         <v>0</v>
@@ -5631,11 +5642,11 @@
       <c r="M22" s="1">
         <v>0</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>84</v>
+      <c r="N22" s="1">
+        <v>0.190576</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.191775</v>
       </c>
       <c r="P22" s="1">
         <v>0</v>
@@ -5643,11 +5654,11 @@
       <c r="Q22" s="1">
         <v>0</v>
       </c>
-      <c r="R22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>84</v>
+      <c r="R22" s="1">
+        <v>0.190576</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0.191775</v>
       </c>
       <c r="T22" s="1">
         <v>37.2174</v>
@@ -5722,7 +5733,7 @@
         <v>37.2174</v>
       </c>
       <c r="AR22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS22" s="1">
         <v>39.9313</v>
@@ -5796,34 +5807,34 @@
       <c r="BP22" s="1">
         <v>39.9313</v>
       </c>
-      <c r="BQ22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BR22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BS22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BT22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BU22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BV22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BW22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BX22" s="1" t="s">
-        <v>84</v>
+      <c r="BQ22" s="1">
+        <v>66.733</v>
+      </c>
+      <c r="BR22" s="1">
+        <v>66.5206</v>
+      </c>
+      <c r="BS22" s="1">
+        <v>66.5548</v>
+      </c>
+      <c r="BT22" s="1">
+        <v>66.7277</v>
+      </c>
+      <c r="BU22" s="3">
+        <v>-32.6242</v>
+      </c>
+      <c r="BV22" s="3">
+        <v>-32.8304</v>
+      </c>
+      <c r="BW22" s="3">
+        <v>-32.79620000000001</v>
+      </c>
+      <c r="BX22" s="3">
+        <v>-32.6216</v>
       </c>
     </row>
     <row r="23" spans="1:76" s="1" customFormat="1">
       <c r="K23" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L23" s="1">
         <v>0</v>
@@ -5831,11 +5842,11 @@
       <c r="M23" s="1">
         <v>0</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>84</v>
+      <c r="N23" s="1">
+        <v>0.296049</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.298881</v>
       </c>
       <c r="P23" s="1">
         <v>0</v>
@@ -5843,11 +5854,11 @@
       <c r="Q23" s="1">
         <v>0</v>
       </c>
-      <c r="R23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>84</v>
+      <c r="R23" s="1">
+        <v>0.296049</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0.298881</v>
       </c>
       <c r="T23" s="1">
         <v>80.6392</v>
@@ -5922,7 +5933,7 @@
         <v>80.6392</v>
       </c>
       <c r="AR23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS23" s="1">
         <v>83.3283</v>
@@ -5996,34 +6007,34 @@
       <c r="BP23" s="1">
         <v>83.3283</v>
       </c>
-      <c r="BQ23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BR23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BS23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BT23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BU23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BV23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BW23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BX23" s="1" t="s">
-        <v>84</v>
+      <c r="BQ23" s="1">
+        <v>85.20229999999999</v>
+      </c>
+      <c r="BR23" s="1">
+        <v>85.0117</v>
+      </c>
+      <c r="BS23" s="1">
+        <v>85.0352</v>
+      </c>
+      <c r="BT23" s="1">
+        <v>85.18140000000001</v>
+      </c>
+      <c r="BU23" s="3">
+        <v>-13.3004</v>
+      </c>
+      <c r="BV23" s="3">
+        <v>-13.4922</v>
+      </c>
+      <c r="BW23" s="3">
+        <v>-13.4683</v>
+      </c>
+      <c r="BX23" s="3">
+        <v>-13.3209</v>
       </c>
     </row>
     <row r="24" spans="1:76" s="1" customFormat="1">
       <c r="K24" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L24" s="1">
         <v>5</v>
@@ -6052,7 +6063,7 @@
     </row>
     <row r="25" spans="1:76" s="1" customFormat="1">
       <c r="K25" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L25" s="1">
         <v>0</v>
@@ -6252,7 +6263,7 @@
     </row>
     <row r="26" spans="1:76" s="1" customFormat="1">
       <c r="K26" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L26" s="1">
         <v>3</v>
@@ -6281,7 +6292,7 @@
     </row>
     <row r="27" spans="1:76" s="1" customFormat="1">
       <c r="K27" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L27" s="1">
         <v>0</v>
@@ -6481,7 +6492,7 @@
     </row>
     <row r="28" spans="1:76" s="1" customFormat="1">
       <c r="K28" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L28" s="1">
         <v>0</v>
@@ -6489,11 +6500,11 @@
       <c r="M28" s="1">
         <v>0</v>
       </c>
-      <c r="N28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>84</v>
+      <c r="N28" s="1">
+        <v>0.2396483684210526</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0.2398447368421053</v>
       </c>
       <c r="P28" s="1">
         <v>0</v>
@@ -6501,11 +6512,11 @@
       <c r="Q28" s="1">
         <v>0</v>
       </c>
-      <c r="R28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>84</v>
+      <c r="R28" s="1">
+        <v>0.2396483684210526</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0.2398447368421053</v>
       </c>
       <c r="T28" s="1">
         <v>53.16323684210526</v>
@@ -6580,7 +6591,7 @@
         <v>53.16323684210526</v>
       </c>
       <c r="AR28" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS28" s="1">
         <v>56.01247368421052</v>
@@ -6654,34 +6665,34 @@
       <c r="BP28" s="1">
         <v>56.01247368421052</v>
       </c>
-      <c r="BQ28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BR28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BS28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BT28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BU28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BV28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BW28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BX28" s="1" t="s">
-        <v>84</v>
+      <c r="BQ28" s="1">
+        <v>73.32855263157894</v>
+      </c>
+      <c r="BR28" s="1">
+        <v>73.0889052631579</v>
+      </c>
+      <c r="BS28" s="1">
+        <v>73.12312105263159</v>
+      </c>
+      <c r="BT28" s="1">
+        <v>73.31313684210527</v>
+      </c>
+      <c r="BU28" s="1">
+        <v>-25.29448947368421</v>
+      </c>
+      <c r="BV28" s="1">
+        <v>-25.53312631578947</v>
+      </c>
+      <c r="BW28" s="1">
+        <v>-25.49785789473684</v>
+      </c>
+      <c r="BX28" s="1">
+        <v>-25.30642105263158</v>
       </c>
     </row>
     <row r="29" spans="1:76" s="1" customFormat="1">
       <c r="K29" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L29" s="1">
         <v>0</v>
@@ -6689,11 +6700,11 @@
       <c r="M29" s="1">
         <v>0</v>
       </c>
-      <c r="N29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>84</v>
+      <c r="N29" s="1">
+        <v>0.02906472549366604</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0.02945181211446054</v>
       </c>
       <c r="P29" s="1">
         <v>0</v>
@@ -6701,11 +6712,11 @@
       <c r="Q29" s="1">
         <v>0</v>
       </c>
-      <c r="R29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>84</v>
+      <c r="R29" s="1">
+        <v>0.02906472549366604</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0.02945181211446054</v>
       </c>
       <c r="T29" s="1">
         <v>10.72319263162602</v>
@@ -6780,7 +6791,7 @@
         <v>10.72319263162602</v>
       </c>
       <c r="AR29" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS29" s="1">
         <v>10.74918840778919</v>
@@ -6854,58 +6865,58 @@
       <c r="BP29" s="1">
         <v>10.74918840778919</v>
       </c>
-      <c r="BQ29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BR29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BS29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BT29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BU29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BV29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BW29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BX29" s="1" t="s">
-        <v>84</v>
+      <c r="BQ29" s="1">
+        <v>4.669110414242502</v>
+      </c>
+      <c r="BR29" s="1">
+        <v>4.676158535139906</v>
+      </c>
+      <c r="BS29" s="1">
+        <v>4.673494068577648</v>
+      </c>
+      <c r="BT29" s="1">
+        <v>4.6657997420435</v>
+      </c>
+      <c r="BU29" s="1">
+        <v>5.068849242277959</v>
+      </c>
+      <c r="BV29" s="1">
+        <v>5.070248868369502</v>
+      </c>
+      <c r="BW29" s="1">
+        <v>5.067608260658109</v>
+      </c>
+      <c r="BX29" s="1">
+        <v>5.062367055000733</v>
       </c>
     </row>
     <row r="30" spans="1:76" s="1" customFormat="1">
       <c r="K30" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="N30" s="1">
+        <v>12.12807150958795</v>
+      </c>
+      <c r="O30" s="1">
+        <v>12.27953237675141</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="R30" s="1">
+        <v>12.12807150958795</v>
+      </c>
+      <c r="S30" s="1">
+        <v>12.27953237675141</v>
       </c>
       <c r="T30" s="1">
         <v>20.17031555748549</v>
@@ -6980,7 +6991,7 @@
         <v>20.17031555748549</v>
       </c>
       <c r="AR30" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS30" s="1">
         <v>19.19070467837471</v>
@@ -7054,29 +7065,29 @@
       <c r="BP30" s="1">
         <v>19.19070467837471</v>
       </c>
-      <c r="BQ30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BR30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BS30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BT30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BU30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BV30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BW30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BX30" s="1" t="s">
-        <v>84</v>
+      <c r="BQ30" s="1">
+        <v>6.367383845282322</v>
+      </c>
+      <c r="BR30" s="1">
+        <v>6.397904741223465</v>
+      </c>
+      <c r="BS30" s="1">
+        <v>6.391267223418736</v>
+      </c>
+      <c r="BT30" s="1">
+        <v>6.364206938917711</v>
+      </c>
+      <c r="BU30" s="1">
+        <v>20.03934195845886</v>
+      </c>
+      <c r="BV30" s="1">
+        <v>19.85753254678454</v>
+      </c>
+      <c r="BW30" s="1">
+        <v>19.8746431232725</v>
+      </c>
+      <c r="BX30" s="1">
+        <v>20.00427893170735</v>
       </c>
     </row>
     <row r="31" spans="1:76" s="1" customFormat="1"/>
